--- a/Hand_Tools/hand_Tools_BOM.xlsx
+++ b/Hand_Tools/hand_Tools_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\glass\B_T_EWING-Glass-studio\Hand_Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\B_T_EWING-Glass-studio\Hand_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316986C-A56B-4132-9A75-C6109AFA6056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA513169-93EB-41FB-A6AD-D965DB17F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2370" windowWidth="28800" windowHeight="15435" xr2:uid="{49AAC1F6-7DA9-4075-8085-73BEE3245C75}"/>
+    <workbookView xWindow="3870" yWindow="5505" windowWidth="25005" windowHeight="15345" xr2:uid="{49AAC1F6-7DA9-4075-8085-73BEE3245C75}"/>
   </bookViews>
   <sheets>
     <sheet name="M_Tumbler_Fin_Mold" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>Stainless</t>
   </si>
@@ -110,6 +113,18 @@
   </si>
   <si>
     <t>Referenced object</t>
+  </si>
+  <si>
+    <t>A36 Steel</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>4f-platten</t>
+  </si>
+  <si>
+    <t>5f-platten</t>
   </si>
 </sst>
 </file>
@@ -400,17 +415,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,14 +437,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -453,15 +468,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
+      <xdr:colOff>256760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>24733</xdr:rowOff>
+      <xdr:rowOff>49581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>501117</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128399</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68141</xdr:rowOff>
+      <xdr:rowOff>92989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,7 +499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6269935" y="2194776"/>
+          <a:off x="6485282" y="2219624"/>
           <a:ext cx="4824639" cy="2445365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -498,9 +513,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -538,7 +553,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -644,7 +659,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,7 +801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,9 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC7737A-EA0C-4B79-840C-90C7C79237B3}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -809,486 +826,710 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>7</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <f>234.6/30</f>
         <v>7.8199999999999994</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6">
         <f>8.46/2</f>
         <v>4.2300000000000004</v>
       </c>
-      <c r="M3" s="7">
-        <f>(L3+N3)/2</f>
+      <c r="O3" s="6">
+        <f>(N3+P3)/2</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="N3" s="7">
+      <c r="P3" s="6">
         <f>9.94/2</f>
         <v>4.97</v>
       </c>
-      <c r="O3" s="8">
+      <c r="Q3" s="7">
         <f>11.54/100</f>
         <v>0.11539999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <f>6.44</f>
         <v>6.44</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6">
         <f>3.52</f>
         <v>3.52</v>
       </c>
-      <c r="M4" s="7">
-        <f>(L4+N4)/2</f>
+      <c r="O4" s="6">
+        <f>(N4+P4)/2</f>
         <v>4.0650000000000004</v>
       </c>
-      <c r="N4" s="7">
+      <c r="P4" s="6">
         <f>4.61</f>
         <v>4.6100000000000003</v>
       </c>
-      <c r="O4" s="8">
+      <c r="Q4" s="7">
         <f>10.26/250</f>
         <v>4.104E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="J5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="22">
+        <f>236.5/50</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1.97</v>
+      </c>
+      <c r="M5" s="22">
+        <v>2.16</v>
+      </c>
+      <c r="N5" s="22">
+        <v>2.33</v>
+      </c>
+      <c r="O5" s="22">
+        <f>AVERAGE(N5,P5)</f>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="P5" s="22">
+        <v>2.76</v>
+      </c>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4" cm="1">
-        <f t="array" ref="B6">VLOOKUP(B3, $J$3:$O$4, _xlfn.IFS(B2=6,3, B2=7,4, B2=8,5),FALSE) * 2</f>
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="D6" s="22" t="s">
+        <f t="array" ref="B6">VLOOKUP(B3, $J$3:$Q$4, _xlfn.IFS(B2=6,3, B2=7,4, B2=8,5),FALSE) * 2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" cm="1">
-        <f t="array" ref="E6">VLOOKUP(E3, $J$3:$O$4, _xlfn.IFS(E2=6,3, E2=7,4, E2=8,5),FALSE) * 2</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G6" s="22" t="s">
+        <f t="array" ref="E6">VLOOKUP(E3, $J$3:$Q$4, _xlfn.IFS(E2=6,3, E2=7,4, E2=8,5),FALSE) * 2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="4" cm="1">
-        <f t="array" ref="H6">VLOOKUP(H3, $J$3:$O$4, _xlfn.IFS(H2=6,3, H2=7,4, H2=8,5),FALSE) * 2</f>
+        <f t="array" ref="H6">VLOOKUP(H3, $J$3:$Q$4, _xlfn.IFS(H2=4,3,H2=5,4, H2=6,5, H2=7,6, H2=8,7),FALSE) * 2</f>
         <v>9.94</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <f>VLOOKUP(B3,$J$3:$O$4,2,FALSE ) * B2</f>
+        <f>VLOOKUP(B3,$J$3:$Q$4,2,FALSE ) * B2</f>
         <v>46.919999999999995</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <f>VLOOKUP(E3,$J$3:$O$4,2,FALSE ) * E2</f>
+        <f>VLOOKUP(E3,$J$3:$Q$4,2,FALSE ) * E2</f>
         <v>54.739999999999995</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4">
-        <f>VLOOKUP(H3,$J$3:$O$4,2,FALSE ) * H2</f>
+        <f>VLOOKUP(H3,$J$3:$Q$4,2,FALSE ) * H2</f>
         <v>62.559999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <f>VLOOKUP(B4,$J$3:$O$4, 6,FALSE) * (2 *2 *B2)</f>
-        <v>2.7695999999999996</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <f>VLOOKUP(B4,$J$3:$Q$4, 6,FALSE) * (2 *2 *B2)</f>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4">
-        <f>VLOOKUP(E4,$J$3:$O$4, 6,FALSE) * (2 *2 *E2)</f>
-        <v>3.2311999999999999</v>
-      </c>
-      <c r="G8" s="22" t="s">
+        <f>VLOOKUP(E4,$J$3:$Q$4, 6,FALSE) * (2 *2 *E2)</f>
+        <v>128.79999999999998</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="4">
-        <f>VLOOKUP(H4,$J$3:$O$4, 6,FALSE) * (2 *2 *H2)</f>
+        <f>VLOOKUP(H4,$J$3:$Q$4, 8,FALSE) * (2 *2 *H2)</f>
         <v>3.6927999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(B6:B8)</f>
-        <v>58.149599999999992</v>
-      </c>
-      <c r="D9" s="23" t="s">
+        <v>157.32</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5">
         <f>SUM(E6:E8)</f>
-        <v>67.171199999999999</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>183.53999999999996</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5">
         <f>SUM(H6:H8)</f>
         <v>76.192800000000005</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>7</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="4" cm="1">
-        <f t="array" ref="B16">VLOOKUP(B13, $J$3:$O$4, _xlfn.IFS(B12=6,3, B12=7,4, B12=8,5),FALSE) * 2</f>
+        <f t="array" ref="B16">VLOOKUP(B13, $J$3:$Q$4, _xlfn.IFS(B12=6,3, B12=7,4, B12=8,5),FALSE) * 2</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" cm="1">
+        <f t="array" ref="E16">VLOOKUP(E13, $J$3:$Q$4, _xlfn.IFS(E12=6,3, E12=7,4, E12=8,5),FALSE) * 2</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4" cm="1">
+        <f t="array" ref="H16">VLOOKUP(H13, $J$3:$Q$4, _xlfn.IFS(H12=6,3, H12=7,4, H12=8,5),FALSE) * 2</f>
         <v>7.04</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" cm="1">
-        <f t="array" ref="E16">VLOOKUP(E13, $J$3:$O$4, _xlfn.IFS(E12=6,3, E12=7,4, E12=8,5),FALSE) * 2</f>
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" cm="1">
-        <f t="array" ref="H16">VLOOKUP(H13, $J$3:$O$4, _xlfn.IFS(H12=6,3, H12=7,4, H12=8,5),FALSE) * 2</f>
-        <v>9.2200000000000006</v>
-      </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <f>VLOOKUP(B13,$J$3:$O$4,2,FALSE ) * B12</f>
+        <f>VLOOKUP(B13,$J$3:$Q$4,2,FALSE ) * B12</f>
         <v>38.64</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="4">
-        <f>VLOOKUP(E13,$J$3:$O$4,2,FALSE ) * E12</f>
+        <f>VLOOKUP(E13,$J$3:$Q$4,2,FALSE ) * E12</f>
         <v>45.080000000000005</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="4">
-        <f>VLOOKUP(H13,$J$3:$O$4,2,FALSE ) * H12</f>
+        <f>VLOOKUP(H13,$J$3:$Q$4,2,FALSE ) * H12</f>
         <v>51.52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="4">
-        <f>VLOOKUP(B14,$J$3:$O$4, 6,FALSE) * (2 *2 *B12)</f>
-        <v>0.98496000000000006</v>
-      </c>
-      <c r="D18" s="22" t="s">
+        <f>VLOOKUP(B14,$J$3:$Q$4, 6,FALSE) * (2 *2 *B12)</f>
+        <v>97.56</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="4">
-        <f>VLOOKUP(E14,$J$3:$O$4, 6,FALSE) * (2 *2 *E12)</f>
-        <v>1.1491199999999999</v>
-      </c>
-      <c r="G18" s="22" t="s">
+        <f>VLOOKUP(E14,$J$3:$Q$4, 6,FALSE) * (2 *2 *E12)</f>
+        <v>113.82000000000001</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="4">
-        <f>VLOOKUP(H14,$J$3:$O$4, 6,FALSE) * (2 *2 *H12)</f>
-        <v>1.31328</v>
+        <f>VLOOKUP(H14,$J$3:$Q$4, 6,FALSE) * (2 *2 *H12)</f>
+        <v>130.08000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="5">
         <f>SUM(B16:B18)</f>
-        <v>46.664960000000001</v>
-      </c>
-      <c r="D19" s="23" t="s">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(E16:E18)</f>
-        <v>54.359120000000004</v>
-      </c>
-      <c r="G19" s="23" t="s">
+        <v>158.9</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="5">
         <f>SUM(H16:H18)</f>
-        <v>62.053280000000001</v>
+        <v>188.64000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="e" cm="1">
+        <f t="array" ref="B26">VLOOKUP(B23, $J$3:$Q$4, _xlfn.IFS(B22=6,3, B22=7,4, B22=8,5),FALSE) * 2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="e" cm="1">
+        <f t="array" ref="E26">VLOOKUP(E23, $J$3:$Q$4, _xlfn.IFS(E22=6,3, E22=7,4, E22=8,5),FALSE) * 2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4" t="e" cm="1">
+        <f t="array" ref="H26">VLOOKUP(H23, $J$3:$Q$4, _xlfn.IFS(H22=6,3, H22=7,4, H22=8,5),FALSE) * 2</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="e">
+        <f>VLOOKUP(B23,$J$3:$Q$4,2,FALSE ) * B22</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>VLOOKUP(E23,$J$3:$Q$4,2,FALSE ) * E22</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f>VLOOKUP(H23,$J$3:$Q$4,2,FALSE ) * H22</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <f>VLOOKUP(B24,$J$3:$Q$4, 6,FALSE) * (2 *2 *B22)</f>
+        <v>97.56</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4">
+        <f>VLOOKUP(E24,$J$3:$Q$4, 6,FALSE) * (2 *2 *E22)</f>
+        <v>113.82000000000001</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4">
+        <f>VLOOKUP(H24,$J$3:$Q$4, 6,FALSE) * (2 *2 *H22)</f>
+        <v>130.08000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="e">
+        <f>SUM(B26:B28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5" t="e">
+        <f>SUM(E26:E28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="e">
+        <f>SUM(H26:H28)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="J9:S9"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 H2 E2 B12 H12 E12" xr:uid="{29A517BD-0B4B-45C5-94E2-038ED3FA3E43}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 H2 E2 B12 H12 E12 B22 H22 E22" xr:uid="{29A517BD-0B4B-45C5-94E2-038ED3FA3E43}">
       <formula1>"6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 H3:H4 E3:E4 B13:B14 H13:H14 E13:E14" xr:uid="{EBFC8357-1CC6-46CC-9EB2-0145E34ABB2E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4 H3:H4 E3:E4 B13:B14 H13:H14 E13:E14 B24 E24 H24" xr:uid="{EBFC8357-1CC6-46CC-9EB2-0145E34ABB2E}">
       <formula1>"Stainless,Aluminum"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 E23 H23" xr:uid="{D26BAE13-765D-43FA-ACA0-9FBE9E2E7AAC}">
+      <formula1>"Stainless,Aluminum, A36"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
